--- a/medicine/Bioéthique/Bénédicte_Bévière_Boyer/Bénédicte_Bévière_Boyer.xlsx
+++ b/medicine/Bioéthique/Bénédicte_Bévière_Boyer/Bénédicte_Bévière_Boyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_B%C3%A9vi%C3%A8re_Boyer</t>
+          <t>Bénédicte_Bévière_Boyer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bénédicte Bévière Boyer née le 6 juillet 1967 à Malestroit est une spécialiste bioéthique et maître de conférences à l'Université Paris-VIII.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_B%C3%A9vi%C3%A8re_Boyer</t>
+          <t>Bénédicte_Bévière_Boyer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1995, elle devient maître de conférences en droit privé et obtient son premier poste à l’université de Franche-Comté à Besançon jusqu'en 2013[1].
-Depuis 2013, elle est maitre de conférences et à l'habilitation universitaire à l'Université de Paris-VIII[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995, elle devient maître de conférences en droit privé et obtient son premier poste à l’université de Franche-Comté à Besançon jusqu'en 2013.
+Depuis 2013, elle est maitre de conférences et à l'habilitation universitaire à l'Université de Paris-VIII.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_B%C3%A9vi%C3%A8re_Boyer</t>
+          <t>Bénédicte_Bévière_Boyer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1996, elle produit de nombreux articles sur divers sujets de bioéthique : 
 Le consentement aux soins des personnes âgées dépendantes
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_B%C3%A9vi%C3%A8re_Boyer</t>
+          <t>Bénédicte_Bévière_Boyer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,10 +604,12 @@
           <t>Accusation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 3 juillet 1998, un membre du jury de la thèse de Mme Bévière datant du 14 juin 1996, soumet à la Faculté de médecine d’Angers une thèse de santé publique dont plus de la moitié des pages est un simple copier-coller de celle publiée par Mme Bévière. Le 9 novembre 1999, il s’inscrit à la Faculté Droit et Santé de l’Université Lille II. Six mois plus tard, le 13 mai 2000, il soumet une thèse en droit privé. Cette fois, plus des deux-tiers des pages sont empruntées aux travaux de Bénédicte Bévière. Il obtient le titre de docteur en droit et est devenu avocat en 2002 à Paris. Bénédicte Bévière porte plainte en 2003 et envoie des courriers d'accusation aux universités concernées mais n'obtient aucune réponse[2].
-L'affaire est rejugée en appel en 2009 et en cassation en 2010[2]. Le plagiaire est condamné à deux ans de prison avec sursis dont 20 000 euros de dommages et intérêts mais la peine n'est pas appliquée. En novembre 2010, le plagiaire se voit retirer son titre de docteur par l'Université de Lille II[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3 juillet 1998, un membre du jury de la thèse de Mme Bévière datant du 14 juin 1996, soumet à la Faculté de médecine d’Angers une thèse de santé publique dont plus de la moitié des pages est un simple copier-coller de celle publiée par Mme Bévière. Le 9 novembre 1999, il s’inscrit à la Faculté Droit et Santé de l’Université Lille II. Six mois plus tard, le 13 mai 2000, il soumet une thèse en droit privé. Cette fois, plus des deux-tiers des pages sont empruntées aux travaux de Bénédicte Bévière. Il obtient le titre de docteur en droit et est devenu avocat en 2002 à Paris. Bénédicte Bévière porte plainte en 2003 et envoie des courriers d'accusation aux universités concernées mais n'obtient aucune réponse.
+L'affaire est rejugée en appel en 2009 et en cassation en 2010. Le plagiaire est condamné à deux ans de prison avec sursis dont 20 000 euros de dommages et intérêts mais la peine n'est pas appliquée. En novembre 2010, le plagiaire se voit retirer son titre de docteur par l'Université de Lille II.
 </t>
         </is>
       </c>
